--- a/MEDIA/_2801__會計科目餘額明細.xlsx
+++ b/MEDIA/_2801__會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(_2801__2020-10-01~2020-10-23)</t>
+          <t>森邦(股)會計科目餘額明細(_2801__2020-09-01~2020-09-30)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>14400000</v>
+        <v>14050000</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20201001</t>
+          <t>20200901</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -442,21 +442,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>頂-虎尾林森-鍾葦蓁暫收6萬+保證金5萬          </t>
+          <t>暫收-賀孝倫-堤諾長庚-保證金20萬            </t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-50000</v>
+        <v>-200000</v>
       </c>
       <c r="G4" t="n">
-        <v>14450000</v>
+        <v>14250000</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>109528</t>
+          <t>108267</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20201005</t>
+          <t>20200901</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -483,21 +483,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>沖#40734-堤諾台北光復北-林世偉保證金20萬     </t>
+          <t>10908高雄展NO.9-黃彥蓁-台南水交社 保證金5萬元 </t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>139419</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="G5" t="n">
-        <v>14310581</v>
+        <v>14300000</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>109594</t>
+          <t>108267</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20201005</t>
+          <t>20200901</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,21 +524,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>扣貨款60581=實退還139419            </t>
+          <t>10906台北展NO.41-藍義淵-中壢後寮 保證金5萬  </t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="G6" t="n">
-        <v>14310581</v>
+        <v>14350000</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>109594</t>
+          <t>108267</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -550,7 +550,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20201005</t>
+          <t>20200904</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -565,21 +565,21 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>沖#29122-堤諾內湖家樂福-林滿足-保證金20萬    </t>
+          <t>沖#91128-新店中正-潘明輝退保證金5萬        </t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>168100</v>
+        <v>50000</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>14142481</v>
+        <v>14300000</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>109597</t>
+          <t>108350</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20201005</t>
+          <t>20200904</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -606,21 +606,21 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>扣貨款31900=實退還168100            </t>
+          <t>頂-三重三民-蔣奇勳 保證金5萬元             </t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="G8" t="n">
-        <v>14142481</v>
+        <v>14350000</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>109597</t>
+          <t>108389</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -632,7 +632,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20201005</t>
+          <t>20200910</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -647,21 +647,21 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>T光復北-用保證金沖貨款                  </t>
+          <t>10906台北展NO.117-蕭惠文-北市光復 保證金5萬 </t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>60581</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="G9" t="n">
-        <v>14081900</v>
+        <v>14400000</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>109593</t>
+          <t>108615</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -673,7 +673,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20201005</t>
+          <t>20200911</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -688,21 +688,21 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10908高雄展NO.33-黃曉菁 -花蓮中正 保證金5萬 </t>
+          <t>沖FG10311170008-台南西門張月嬌保證金5萬   </t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="F10" t="n">
-        <v>-50000</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>14131900</v>
+        <v>14350000</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>109656</t>
+          <t>108591</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -714,7 +714,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20201005</t>
+          <t>20200915</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>沖#91190-新店北新-施香君退保證金5萬        </t>
+          <t>沖#108267-黃彥蓁-台南水社交-保證金5萬      </t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -739,11 +739,11 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>14081900</v>
+        <v>14300000</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>109590</t>
+          <t>108692</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -755,7 +755,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20201005</t>
+          <t>20200915</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -770,7 +770,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>暫收-蘆竹鴻佰科技-林欣杰-保證金5萬           </t>
+          <t>頂-北市立農-楊宗憲(士商2店)保證金5萬元        </t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -780,11 +780,11 @@
         <v>-50000</v>
       </c>
       <c r="G12" t="n">
-        <v>14131900</v>
+        <v>14350000</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>109656</t>
+          <t>108778</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20201005</t>
+          <t>20200925</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -811,21 +811,21 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>T內湖用保證金沖貨款                    </t>
+          <t>沖#91718-退北市立農-林家鈴保證金5萬        </t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>31900</v>
+        <v>50000</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>14100000</v>
+        <v>14300000</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>109596</t>
+          <t>109245</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -837,7 +837,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20200929</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -852,21 +852,21 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>沖#51900-退深坑北新-陳偉峰-保證金5萬       </t>
+          <t>10906台北展NO90-邱芸芸 -三重正義南 保證金5萬 </t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="G14" t="n">
-        <v>14050000</v>
+        <v>14350000</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>109637</t>
+          <t>109417</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -878,7 +878,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20200929</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -893,106 +893,24 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>沖#102256-蘆洲仁愛-陳品璇退保證金5萬       </t>
+          <t>頂-楊梅梅獅-羅秀娣 保證金5萬              </t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="G15" t="n">
-        <v>14000000</v>
+        <v>14400000</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>109961</t>
+          <t>109417</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>20201023</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2801  .        </t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>沖#75593-虎尾林森-張正東(合約人)李淑娟-保證金5萬</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>50000</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>13950000</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>110449</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>20201023</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2801  .        </t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>沖#91943-楊梅梅獅-陳芳瑩-保證金5萬        </t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>50000</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>13900000</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>110449</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
